--- a/documents/通天塔.xlsx
+++ b/documents/通天塔.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="75" windowWidth="13560" windowHeight="9375" activeTab="1"/>
+    <workbookView xWindow="15" yWindow="75" windowWidth="13560" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="刷怪设置" sheetId="1" r:id="rId1"/>
@@ -78,66 +78,6 @@
     <t xml:space="preserve">9双头金钢 双头血魔 赤月恶魔 </t>
   </si>
   <si>
-    <t xml:space="preserve">10黄泉教主 恶灵教主 牛魔王 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11魔龙战将 魔龙战将 魔龙教主 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12金仗蜘蛛 绿魔蜘蛛 雷炎蛛王 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12圣殿黄龙 圣殿黄龙 骷髅统领 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13狐月弓箭手 狐月弓箭手 狐月天珠 </t>
-  </si>
-  <si>
-    <t>14雪域天将 雪域天将 雪域魔王</t>
-  </si>
-  <si>
-    <t>15火龙将军 火龙将军 火龙教主</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16静之火灵 怒之火灵 火龙 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17黑暗女妖 黑暗女妖 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18嗜魂者 嗜血者 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19泯灭战士 泯灭斗士 泯灭脑魔 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20地之护法 地之护法 不屈英灵 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21幽灵捍卫者 幽灵捍卫者 幽灵教主 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22破碎斗魂 破碎幽魂 太阴玉兔 </t>
-  </si>
-  <si>
-    <t>23狂暴 嗜血</t>
-  </si>
-  <si>
-    <t>24月灵之神 迷惑之神 洪荒之神</t>
-  </si>
-  <si>
-    <t>25封印之神 封印之神 失落魔王</t>
-  </si>
-  <si>
-    <t>26藏月妖魅 藏月妖魅 邀月</t>
-  </si>
-  <si>
-    <t>27邪魔 邪魔 深渊</t>
-  </si>
-  <si>
-    <t>28祭血亡灵 祭血亡灵 祭血心魔</t>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10虹魔教主 虹魔猪卫 虹魔猪卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,6 +149,90 @@
   </si>
   <si>
     <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭血亡灵 祭血亡灵 祭血心魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪魔 邪魔 深渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏月妖魅 藏月妖魅 邀月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印之神 封印之神 失落魔王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月灵之神 迷惑之神 洪荒之神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴 嗜血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">破碎斗魂 破碎幽魂 太阴玉兔 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">幽灵捍卫者 幽灵捍卫者 幽灵教主 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">地之护法 地之护法 不屈英灵 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">泯灭战士 泯灭斗士 泯灭脑魔 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">嗜魂者 嗜血者 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">黑暗女妖 黑暗女妖 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">静之火灵 怒之火灵 火龙 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙将军 火龙将军 火龙教主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域天将 雪域天将 雪域魔王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">狐月弓箭手 狐月弓箭手 狐月天珠 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">圣殿黄龙 圣殿黄龙 骷髅统领 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金仗蜘蛛 绿魔蜘蛛 雷炎蛛王 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">魔龙战将 魔龙战将 魔龙教主 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">黄泉教主 恶灵教主 牛魔王 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹魔教主 虹魔猪卫 虹魔猪卫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,19 +615,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -747,7 +767,7 @@
         <v>10041</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -807,7 +827,7 @@
         <v>20023</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -827,7 +847,7 @@
         <v>20019</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -847,7 +867,7 @@
         <v>20029</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -867,7 +887,7 @@
         <v>10097</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -887,7 +907,7 @@
         <v>10099</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -907,7 +927,7 @@
         <v>10112</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -927,7 +947,7 @@
         <v>10126</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -947,7 +967,7 @@
         <v>10135</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -967,7 +987,7 @@
         <v>10128</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -984,7 +1004,7 @@
         <v>21001</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1001,7 +1021,7 @@
         <v>21003</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1021,7 +1041,7 @@
         <v>11020</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1041,7 +1061,7 @@
         <v>11028</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1061,7 +1081,7 @@
         <v>21007</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1081,7 +1101,7 @@
         <v>11043</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1098,7 +1118,7 @@
         <v>21010</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -1118,7 +1138,7 @@
         <v>21014</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -1138,7 +1158,7 @@
         <v>21015</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -1158,7 +1178,7 @@
         <v>12019</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -1178,7 +1198,7 @@
         <v>12026</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -1198,7 +1218,7 @@
         <v>12031</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1223,52 +1243,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="O1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="P1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
